--- a/mysite/algorithm/data/traitements.xlsx
+++ b/mysite/algorithm/data/traitements.xlsx
@@ -20,87 +20,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
   <si>
     <t xml:space="preserve">traitement</t>
   </si>
   <si>
-    <t xml:space="preserve">flags</t>
+    <t xml:space="preserve">aspirine</t>
   </si>
   <si>
     <t xml:space="preserve">Aspirine, Asaflow, Cardioaspirine</t>
   </si>
   <si>
-    <t xml:space="preserve">Antiagregant plaquettaire</t>
+    <t xml:space="preserve">clopidogrel</t>
   </si>
   <si>
     <t xml:space="preserve">Clopidogrel, PLAVIX</t>
   </si>
   <si>
+    <t xml:space="preserve">prasurgel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prasugrel, EFFIENT</t>
   </si>
   <si>
+    <t xml:space="preserve">ticlopidine</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ticlopidine, TICLID</t>
   </si>
   <si>
+    <t xml:space="preserve">dipyridamole</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dipyridamole</t>
   </si>
   <si>
+    <t xml:space="preserve">ticagrelor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ticagrelor, BRILIQUE</t>
   </si>
   <si>
+    <t xml:space="preserve">acenocoumarol</t>
+  </si>
+  <si>
     <t xml:space="preserve">Acénocoumarol, SINTROM</t>
   </si>
   <si>
-    <t xml:space="preserve">Anticoagulant-ACOD-AVK-thrombo</t>
+    <t xml:space="preserve">phenprocoumone</t>
   </si>
   <si>
     <t xml:space="preserve">Phenprocoumone, MARCOUMAR</t>
   </si>
   <si>
-    <t xml:space="preserve">Anticoagulant-ACOD-AVK</t>
+    <t xml:space="preserve">warfarine</t>
   </si>
   <si>
     <t xml:space="preserve">Warfarine, MAREVAN</t>
   </si>
   <si>
+    <t xml:space="preserve">apixaban</t>
+  </si>
+  <si>
     <t xml:space="preserve">Apixaban, ELIQUIS</t>
   </si>
   <si>
-    <t xml:space="preserve">Anticoagulant-ACOD-AOD-thrombo-xaban</t>
+    <t xml:space="preserve">dabigatran</t>
   </si>
   <si>
     <t xml:space="preserve">Dabigatran, PRADAXA</t>
   </si>
   <si>
-    <t xml:space="preserve">Anticoagulant-ACOD-AOD-thrombo</t>
+    <t xml:space="preserve">edoxaban</t>
   </si>
   <si>
     <t xml:space="preserve">Edoxaban, LIXIANA</t>
   </si>
   <si>
-    <t xml:space="preserve">Anticoagulant-ACOD-AOD-xaban</t>
+    <t xml:space="preserve">rivaroxaban</t>
   </si>
   <si>
     <t xml:space="preserve">Rivaroxaban, XARELTO</t>
   </si>
   <si>
+    <t xml:space="preserve">fondaparinux</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fondaparinux, ARIXTRA</t>
   </si>
   <si>
-    <t xml:space="preserve">Anticoagulant-ACOD-AOD</t>
+    <t xml:space="preserve">enoxaparine</t>
   </si>
   <si>
     <t xml:space="preserve">Enoxaparine, CLEXANE</t>
   </si>
   <si>
-    <t xml:space="preserve">Anticoagulant-Injectable</t>
+    <t xml:space="preserve">nadroparine</t>
   </si>
   <si>
     <t xml:space="preserve">Nadroparine, FRAXIPARINE, FRAXODI</t>
   </si>
   <si>
+    <t xml:space="preserve">tinzaparine</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tinzaparine, INNOHEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hnf</t>
   </si>
   <si>
     <t xml:space="preserve">HNF, Héparine Sodique</t>
@@ -113,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -135,6 +165,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,8 +215,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -204,13 +244,13 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="30.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -234,135 +274,135 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>9</v>
+      <c r="A8" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>11</v>
+      <c r="A9" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>13</v>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>14</v>
+      <c r="A11" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>16</v>
+      <c r="A12" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>18</v>
+      <c r="A13" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>20</v>
+      <c r="A14" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>21</v>
+      <c r="A15" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>23</v>
+      <c r="A16" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>25</v>
+      <c r="A17" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>26</v>
+      <c r="A18" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
